--- a/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Email/4wise/0.95_.xlsx
+++ b/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Email/4wise/0.95_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thu-trangnguyen/Documents/project/InputPreparation/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Email/4wise/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455CDE55-C49D-B242-B447-B089A96FABEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="17" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarantula" sheetId="1" r:id="rId1"/>
@@ -42,7 +48,7 @@
     <sheet name="Kulczynski1" sheetId="33" r:id="rId33"/>
     <sheet name="Kulczynski2" sheetId="34" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -226,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -310,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +356,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,6 +408,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,14 +601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -637,7 +689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -678,7 +730,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -719,7 +771,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -760,7 +812,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -801,7 +853,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -842,7 +894,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -883,7 +935,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -924,7 +976,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1058,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1047,7 +1099,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1088,7 +1140,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1129,7 +1181,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1222,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1263,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1304,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1293,7 +1345,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1334,7 +1386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1416,7 +1468,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1457,7 +1509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1498,7 +1550,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1539,7 +1591,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1580,7 +1632,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1627,14 +1679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1754,7 +1808,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1795,7 +1849,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1890,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1931,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1972,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1959,7 +2013,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2000,7 +2054,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2041,7 +2095,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2136,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2123,7 +2177,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2164,7 +2218,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2259,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2246,7 +2300,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2287,7 +2341,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2382,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2423,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2410,7 +2464,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2451,7 +2505,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2492,7 +2546,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2533,7 +2587,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2574,7 +2628,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2615,7 +2669,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2656,7 +2710,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2703,14 +2757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2789,7 +2843,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2884,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2925,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2912,7 +2966,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2953,7 +3007,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2994,7 +3048,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3035,7 +3089,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3076,7 +3130,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3117,7 +3171,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3158,7 +3212,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3199,7 +3253,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3240,7 +3294,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3281,7 +3335,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3322,7 +3376,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3363,7 +3417,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3458,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3445,7 +3499,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3486,7 +3540,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3527,7 +3581,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3568,7 +3622,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3609,7 +3663,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -3650,7 +3704,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -3691,7 +3745,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3732,7 +3786,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -3779,14 +3833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +3878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3865,7 +3919,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3906,7 +3960,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3947,7 +4001,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3988,7 +4042,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4029,7 +4083,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4124,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4111,7 +4165,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4152,7 +4206,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4193,7 +4247,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4234,7 +4288,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4275,7 +4329,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4316,7 +4370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -4357,7 +4411,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4398,7 +4452,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4439,7 +4493,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -4480,7 +4534,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4521,7 +4575,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4562,7 +4616,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4603,7 +4657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -4644,7 +4698,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4685,7 +4739,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4726,7 +4780,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -4767,7 +4821,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4808,7 +4862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4855,14 +4909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +4995,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4982,7 +5036,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5077,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -5064,7 +5118,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5105,7 +5159,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5146,7 +5200,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -5187,7 +5241,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -5228,7 +5282,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5269,7 +5323,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -5310,7 +5364,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -5351,7 +5405,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -5392,7 +5446,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -5433,7 +5487,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -5474,7 +5528,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -5515,7 +5569,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -5556,7 +5610,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -5597,7 +5651,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5638,7 +5692,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5679,7 +5733,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5720,7 +5774,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5761,7 +5815,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -5802,7 +5856,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5843,7 +5897,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -5884,7 +5938,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -5931,14 +5985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5976,7 +6030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6017,7 +6071,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6058,7 +6112,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6099,7 +6153,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6140,7 +6194,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6181,7 +6235,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6222,7 +6276,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6263,7 +6317,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -6304,7 +6358,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6345,7 +6399,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6386,7 +6440,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6427,7 +6481,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -6468,7 +6522,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -6509,7 +6563,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6550,7 +6604,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -6591,7 +6645,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -6632,7 +6686,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -6673,7 +6727,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -6714,7 +6768,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6755,7 +6809,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -6796,7 +6850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6837,7 +6891,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -6878,7 +6932,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -6919,7 +6973,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -6960,7 +7014,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -7007,14 +7061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7052,7 +7106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -7093,7 +7147,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7134,7 +7188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7175,7 +7229,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -7216,7 +7270,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7257,7 +7311,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +7352,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7339,7 +7393,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -7380,7 +7434,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7421,7 +7475,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7462,7 +7516,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7503,7 +7557,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -7544,7 +7598,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -7585,7 +7639,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -7626,7 +7680,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7667,7 +7721,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -7708,7 +7762,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -7749,7 +7803,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -7790,7 +7844,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -7831,7 +7885,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -7872,7 +7926,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -7913,7 +7967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -7954,7 +8008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -7995,7 +8049,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -8036,7 +8090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -8083,14 +8137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8128,7 +8182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -8169,7 +8223,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8210,7 +8264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8251,7 +8305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8292,7 +8346,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -8333,7 +8387,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -8374,7 +8428,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8415,7 +8469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -8456,7 +8510,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -8497,7 +8551,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -8538,7 +8592,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -8579,7 +8633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -8620,7 +8674,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8661,7 +8715,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -8702,7 +8756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -8743,7 +8797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -8784,7 +8838,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -8825,7 +8879,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -8866,7 +8920,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -8907,7 +8961,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -8948,7 +9002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -8989,7 +9043,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -9030,7 +9084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -9071,7 +9125,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -9112,7 +9166,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -9159,14 +9213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9204,7 +9260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -9245,7 +9301,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9286,7 +9342,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9327,7 +9383,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9368,7 +9424,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9385,10 +9441,10 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>247</v>
@@ -9409,7 +9465,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -9450,7 +9506,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -9491,7 +9547,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -9508,10 +9564,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>247</v>
@@ -9532,7 +9588,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9573,7 +9629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -9614,7 +9670,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -9631,10 +9687,10 @@
         <v>51</v>
       </c>
       <c r="F12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H12">
         <v>247</v>
@@ -9655,7 +9711,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -9696,7 +9752,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -9737,7 +9793,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -9745,19 +9801,19 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>111</v>
       </c>
       <c r="F15">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G15">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H15">
         <v>247</v>
@@ -9778,7 +9834,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -9795,10 +9851,10 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H16">
         <v>247</v>
@@ -9819,7 +9875,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -9860,7 +9916,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -9901,7 +9957,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -9942,7 +9998,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -9983,7 +10039,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -10024,7 +10080,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -10065,7 +10121,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -10073,19 +10129,19 @@
         <v>53</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>143</v>
       </c>
       <c r="F23">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>247</v>
@@ -10106,7 +10162,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10147,7 +10203,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -10188,7 +10244,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -10196,19 +10252,19 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>111</v>
       </c>
       <c r="F26">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G26">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H26">
         <v>247</v>
@@ -10235,14 +10291,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10280,7 +10338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -10321,7 +10379,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10362,7 +10420,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10403,7 +10461,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -10444,7 +10502,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10485,7 +10543,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -10526,7 +10584,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -10567,7 +10625,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -10608,7 +10666,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10649,7 +10707,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -10690,7 +10748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -10698,10 +10756,10 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>51</v>
@@ -10731,7 +10789,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -10772,7 +10830,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -10813,7 +10871,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -10830,10 +10888,10 @@
         <v>111</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>247</v>
@@ -10854,7 +10912,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -10871,10 +10929,10 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>247</v>
@@ -10895,7 +10953,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -10936,7 +10994,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -10977,7 +11035,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -11018,7 +11076,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -11059,7 +11117,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -11100,7 +11158,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -11141,7 +11199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -11182,7 +11240,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -11223,7 +11281,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -11264,7 +11322,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -11272,19 +11330,19 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>111</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>247</v>
@@ -11311,14 +11369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11356,7 +11416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -11397,7 +11457,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11438,7 +11498,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -11479,7 +11539,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -11520,7 +11580,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -11561,7 +11621,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11602,7 +11662,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -11643,7 +11703,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -11684,7 +11744,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -11725,7 +11785,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -11766,7 +11826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -11807,7 +11867,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -11848,7 +11908,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -11889,7 +11949,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -11930,7 +11990,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -11971,7 +12031,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -12012,7 +12072,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -12053,7 +12113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -12094,7 +12154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -12135,7 +12195,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -12176,7 +12236,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -12217,7 +12277,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -12258,7 +12318,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -12299,7 +12359,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -12340,7 +12400,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -12387,14 +12447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12432,7 +12492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -12473,7 +12533,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12514,7 +12574,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -12555,7 +12615,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -12596,7 +12656,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -12637,7 +12697,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -12678,7 +12738,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -12719,7 +12779,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -12760,7 +12820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -12801,7 +12861,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -12842,7 +12902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -12883,7 +12943,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -12924,7 +12984,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -12965,7 +13025,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -13006,7 +13066,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -13047,7 +13107,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -13088,7 +13148,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -13129,7 +13189,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -13170,7 +13230,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -13211,7 +13271,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -13252,7 +13312,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -13293,7 +13353,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -13334,7 +13394,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -13375,7 +13435,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -13416,7 +13476,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -13463,14 +13523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13508,7 +13570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -13549,7 +13611,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13590,7 +13652,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -13631,7 +13693,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -13672,7 +13734,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13713,7 +13775,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -13754,7 +13816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -13795,7 +13857,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -13836,7 +13898,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -13877,7 +13939,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -13918,7 +13980,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -13959,7 +14021,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -14000,7 +14062,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -14041,7 +14103,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -14082,7 +14144,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -14123,7 +14185,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -14164,7 +14226,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -14205,7 +14267,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -14246,7 +14308,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -14287,7 +14349,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -14328,7 +14390,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -14369,7 +14431,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -14410,7 +14472,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -14451,7 +14513,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -14492,7 +14554,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -14539,14 +14601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14584,7 +14646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -14625,7 +14687,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14666,7 +14728,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -14707,7 +14769,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -14748,7 +14810,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -14789,7 +14851,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -14830,7 +14892,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -14871,7 +14933,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -14912,7 +14974,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -14953,7 +15015,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -14994,7 +15056,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -15035,7 +15097,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -15076,7 +15138,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15117,7 +15179,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -15158,7 +15220,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -15199,7 +15261,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -15240,7 +15302,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -15281,7 +15343,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -15322,7 +15384,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -15363,7 +15425,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -15404,7 +15466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -15445,7 +15507,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -15486,7 +15548,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -15527,7 +15589,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -15568,7 +15630,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -15615,14 +15677,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15660,7 +15724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15677,10 +15741,10 @@
         <v>131</v>
       </c>
       <c r="F2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H2">
         <v>247</v>
@@ -15701,7 +15765,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -15718,10 +15782,10 @@
         <v>133</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G3">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H3">
         <v>247</v>
@@ -15742,7 +15806,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -15750,19 +15814,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>247</v>
@@ -15783,7 +15847,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -15794,16 +15858,16 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>199</v>
@@ -15824,7 +15888,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -15832,19 +15896,19 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>247</v>
@@ -15865,7 +15929,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -15906,7 +15970,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -15917,16 +15981,16 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>247</v>
@@ -15947,7 +16011,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -15955,19 +16019,19 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>247</v>
@@ -15988,7 +16052,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -16005,10 +16069,10 @@
         <v>45</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H10">
         <v>247</v>
@@ -16029,7 +16093,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -16046,10 +16110,10 @@
         <v>54</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G11">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <v>174</v>
@@ -16070,7 +16134,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -16087,10 +16151,10 @@
         <v>51</v>
       </c>
       <c r="F12">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="G12">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H12">
         <v>247</v>
@@ -16111,7 +16175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -16128,10 +16192,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>247</v>
@@ -16152,7 +16216,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -16193,7 +16257,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -16201,19 +16265,19 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>111</v>
       </c>
       <c r="F15">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G15">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H15">
         <v>247</v>
@@ -16234,7 +16298,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -16242,19 +16306,19 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>90</v>
       </c>
       <c r="F16">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H16">
         <v>247</v>
@@ -16275,7 +16339,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -16292,10 +16356,10 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>247</v>
@@ -16316,7 +16380,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -16333,10 +16397,10 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <v>247</v>
@@ -16357,7 +16421,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -16365,19 +16429,19 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>247</v>
@@ -16398,7 +16462,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -16415,10 +16479,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>247</v>
@@ -16439,7 +16503,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -16480,7 +16544,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -16497,10 +16561,10 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G22">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>247</v>
@@ -16521,7 +16585,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -16529,19 +16593,19 @@
         <v>53</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>143</v>
       </c>
       <c r="F23">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>247</v>
@@ -16562,7 +16626,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -16579,10 +16643,10 @@
         <v>45</v>
       </c>
       <c r="F24">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G24">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H24">
         <v>247</v>
@@ -16603,7 +16667,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -16620,10 +16684,10 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="G25">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>247</v>
@@ -16644,7 +16708,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -16652,19 +16716,19 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>111</v>
       </c>
       <c r="F26">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G26">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H26">
         <v>247</v>
@@ -16691,14 +16755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16736,7 +16800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16777,7 +16841,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -16818,7 +16882,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -16859,7 +16923,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -16900,7 +16964,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -16941,7 +17005,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -16982,7 +17046,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -17023,7 +17087,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -17064,7 +17128,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -17105,7 +17169,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -17146,7 +17210,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -17187,7 +17251,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -17228,7 +17292,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -17269,7 +17333,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -17310,7 +17374,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -17351,7 +17415,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -17392,7 +17456,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -17433,7 +17497,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -17474,7 +17538,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -17515,7 +17579,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -17556,7 +17620,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -17597,7 +17661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -17638,7 +17702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -17679,7 +17743,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -17720,7 +17784,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -17767,14 +17831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17812,7 +17876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -17853,7 +17917,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -17894,7 +17958,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -17935,7 +17999,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -17976,7 +18040,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -18017,7 +18081,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -18058,7 +18122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -18099,7 +18163,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -18140,7 +18204,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -18181,7 +18245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -18222,7 +18286,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -18263,7 +18327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -18304,7 +18368,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -18345,7 +18409,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -18386,7 +18450,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -18427,7 +18491,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -18468,7 +18532,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -18509,7 +18573,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -18550,7 +18614,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -18591,7 +18655,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -18632,7 +18696,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -18673,7 +18737,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -18714,7 +18778,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -18755,7 +18819,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -18796,7 +18860,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -18843,14 +18907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18888,7 +18952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -18929,7 +18993,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -18970,7 +19034,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -19011,7 +19075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -19052,7 +19116,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -19093,7 +19157,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -19134,7 +19198,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -19175,7 +19239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -19216,7 +19280,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -19257,7 +19321,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -19298,7 +19362,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -19339,7 +19403,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -19380,7 +19444,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -19421,7 +19485,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -19462,7 +19526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -19503,7 +19567,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -19544,7 +19608,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -19585,7 +19649,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -19626,7 +19690,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -19667,7 +19731,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -19708,7 +19772,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -19749,7 +19813,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -19790,7 +19854,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -19831,7 +19895,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -19872,7 +19936,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -19919,14 +19983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19964,7 +20028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -20005,7 +20069,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -20046,7 +20110,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -20087,7 +20151,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -20128,7 +20192,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -20169,7 +20233,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -20210,7 +20274,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -20251,7 +20315,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -20292,7 +20356,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -20333,7 +20397,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -20374,7 +20438,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -20415,7 +20479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -20456,7 +20520,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -20497,7 +20561,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -20538,7 +20602,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -20579,7 +20643,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -20620,7 +20684,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -20661,7 +20725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -20702,7 +20766,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -20743,7 +20807,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -20784,7 +20848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -20825,7 +20889,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -20866,7 +20930,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -20907,7 +20971,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -20948,7 +21012,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -20995,14 +21059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21040,7 +21104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -21081,7 +21145,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -21122,7 +21186,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -21163,7 +21227,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -21204,7 +21268,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -21245,7 +21309,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -21286,7 +21350,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -21327,7 +21391,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -21368,7 +21432,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -21409,7 +21473,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -21450,7 +21514,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -21491,7 +21555,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -21532,7 +21596,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -21573,7 +21637,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -21614,7 +21678,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -21655,7 +21719,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -21696,7 +21760,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -21737,7 +21801,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -21778,7 +21842,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -21819,7 +21883,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -21860,7 +21924,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -21901,7 +21965,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -21942,7 +22006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -21983,7 +22047,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -22024,7 +22088,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -22071,14 +22135,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22116,7 +22182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -22157,7 +22223,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -22198,7 +22264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -22239,7 +22305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -22280,7 +22346,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -22321,7 +22387,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -22362,7 +22428,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -22403,7 +22469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -22444,7 +22510,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -22485,7 +22551,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -22526,7 +22592,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -22567,7 +22633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -22608,7 +22674,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -22649,7 +22715,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -22690,7 +22756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -22731,7 +22797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -22772,7 +22838,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -22813,7 +22879,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -22854,7 +22920,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -22895,7 +22961,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -22936,7 +23002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -22977,7 +23043,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -23018,7 +23084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -23059,7 +23125,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -23100,7 +23166,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -23147,14 +23213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23192,7 +23258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -23233,7 +23299,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -23274,7 +23340,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -23315,7 +23381,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -23356,7 +23422,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -23397,7 +23463,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -23438,7 +23504,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -23479,7 +23545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -23520,7 +23586,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -23561,7 +23627,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -23602,7 +23668,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -23643,7 +23709,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -23684,7 +23750,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -23725,7 +23791,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -23766,7 +23832,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -23807,7 +23873,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -23848,7 +23914,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -23889,7 +23955,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -23930,7 +23996,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -23971,7 +24037,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -24012,7 +24078,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -24053,7 +24119,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -24094,7 +24160,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -24135,7 +24201,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -24176,7 +24242,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -24223,14 +24289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24268,7 +24334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -24309,7 +24375,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -24350,7 +24416,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -24391,7 +24457,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -24432,7 +24498,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -24473,7 +24539,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -24514,7 +24580,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -24555,7 +24621,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -24596,7 +24662,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -24637,7 +24703,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -24678,7 +24744,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -24719,7 +24785,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -24760,7 +24826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -24801,7 +24867,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -24842,7 +24908,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -24883,7 +24949,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -24924,7 +24990,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -24965,7 +25031,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -25006,7 +25072,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -25047,7 +25113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -25088,7 +25154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -25129,7 +25195,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -25170,7 +25236,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -25211,7 +25277,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -25252,7 +25318,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -25299,14 +25365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25344,7 +25412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -25352,10 +25420,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>131</v>
@@ -25385,7 +25453,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -25426,7 +25494,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -25467,7 +25535,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -25508,7 +25576,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -25549,7 +25617,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -25590,7 +25658,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -25631,7 +25699,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -25672,7 +25740,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -25713,7 +25781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -25754,7 +25822,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -25795,7 +25863,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -25836,7 +25904,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -25877,7 +25945,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -25918,7 +25986,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -25926,10 +25994,10 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>90</v>
@@ -25959,7 +26027,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -26000,7 +26068,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -26041,7 +26109,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -26082,7 +26150,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -26123,7 +26191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -26164,7 +26232,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -26205,7 +26273,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -26246,7 +26314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -26287,7 +26355,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -26328,7 +26396,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -26375,14 +26443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26420,7 +26490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -26461,7 +26531,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -26502,7 +26572,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -26543,7 +26613,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -26584,7 +26654,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -26625,7 +26695,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -26666,7 +26736,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -26707,7 +26777,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -26748,7 +26818,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -26789,7 +26859,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -26830,7 +26900,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -26838,10 +26908,10 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>51</v>
@@ -26871,7 +26941,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -26912,7 +26982,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -26953,7 +27023,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -26970,10 +27040,10 @@
         <v>111</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>247</v>
@@ -26994,7 +27064,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -27011,10 +27081,10 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>247</v>
@@ -27035,7 +27105,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -27076,7 +27146,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -27117,7 +27187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -27158,7 +27228,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -27199,7 +27269,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -27240,7 +27310,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -27281,7 +27351,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -27322,7 +27392,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -27363,7 +27433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -27404,7 +27474,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -27412,19 +27482,19 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>111</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>247</v>
@@ -27451,14 +27521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27496,7 +27566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -27537,7 +27607,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -27578,7 +27648,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -27619,7 +27689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -27660,7 +27730,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -27701,7 +27771,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -27742,7 +27812,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -27783,7 +27853,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -27824,7 +27894,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -27865,7 +27935,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -27906,7 +27976,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -27947,7 +28017,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -27988,7 +28058,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -28029,7 +28099,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -28070,7 +28140,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -28111,7 +28181,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -28152,7 +28222,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -28193,7 +28263,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -28234,7 +28304,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -28275,7 +28345,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -28316,7 +28386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -28357,7 +28427,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -28398,7 +28468,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -28439,7 +28509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -28480,7 +28550,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -28527,14 +28597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28572,7 +28642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -28613,7 +28683,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -28654,7 +28724,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -28695,7 +28765,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -28736,7 +28806,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -28777,7 +28847,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -28818,7 +28888,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -28859,7 +28929,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -28900,7 +28970,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -28941,7 +29011,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -28982,7 +29052,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -29023,7 +29093,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -29064,7 +29134,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -29105,7 +29175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -29146,7 +29216,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -29187,7 +29257,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -29228,7 +29298,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -29269,7 +29339,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -29310,7 +29380,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -29351,7 +29421,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -29392,7 +29462,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -29433,7 +29503,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -29474,7 +29544,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -29515,7 +29585,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -29556,7 +29626,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -29603,14 +29673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29648,7 +29718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -29689,7 +29759,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -29730,7 +29800,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -29771,7 +29841,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -29812,7 +29882,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -29853,7 +29923,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -29894,7 +29964,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -29935,7 +30005,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -29976,7 +30046,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -30017,7 +30087,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -30058,7 +30128,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -30099,7 +30169,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -30140,7 +30210,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -30181,7 +30251,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -30222,7 +30292,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -30263,7 +30333,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -30304,7 +30374,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -30345,7 +30415,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -30386,7 +30456,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -30427,7 +30497,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -30468,7 +30538,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -30509,7 +30579,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -30550,7 +30620,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -30591,7 +30661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -30632,7 +30702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -30679,14 +30749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30724,7 +30794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -30765,7 +30835,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -30806,7 +30876,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -30847,7 +30917,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -30888,7 +30958,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -30929,7 +30999,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -30970,7 +31040,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -31011,7 +31081,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -31052,7 +31122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -31093,7 +31163,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -31134,7 +31204,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -31175,7 +31245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -31216,7 +31286,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -31257,7 +31327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -31298,7 +31368,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -31339,7 +31409,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -31380,7 +31450,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -31421,7 +31491,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -31462,7 +31532,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -31503,7 +31573,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -31544,7 +31614,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -31585,7 +31655,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -31626,7 +31696,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -31667,7 +31737,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -31708,7 +31778,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -31755,14 +31825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31800,7 +31870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -31841,7 +31911,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -31882,7 +31952,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -31923,7 +31993,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -31964,7 +32034,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -32005,7 +32075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -32046,7 +32116,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -32087,7 +32157,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -32128,7 +32198,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -32169,7 +32239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -32210,7 +32280,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -32251,7 +32321,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -32292,7 +32362,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -32333,7 +32403,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -32374,7 +32444,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -32415,7 +32485,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -32456,7 +32526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -32497,7 +32567,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -32538,7 +32608,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -32579,7 +32649,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -32620,7 +32690,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -32661,7 +32731,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -32702,7 +32772,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -32743,7 +32813,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -32784,7 +32854,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -32831,14 +32901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -32876,7 +32946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -32917,7 +32987,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -32958,7 +33028,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -32999,7 +33069,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -33040,7 +33110,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -33081,7 +33151,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -33122,7 +33192,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -33163,7 +33233,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -33204,7 +33274,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -33245,7 +33315,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -33286,7 +33356,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -33327,7 +33397,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -33368,7 +33438,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -33409,7 +33479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -33450,7 +33520,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -33491,7 +33561,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -33532,7 +33602,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -33573,7 +33643,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -33614,7 +33684,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -33655,7 +33725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -33696,7 +33766,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -33737,7 +33807,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -33778,7 +33848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -33819,7 +33889,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -33860,7 +33930,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -33907,14 +33977,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33952,7 +34024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -33993,7 +34065,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -34034,7 +34106,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -34075,7 +34147,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -34116,7 +34188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -34157,7 +34229,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -34198,7 +34270,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -34239,7 +34311,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -34280,7 +34352,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -34321,7 +34393,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -34362,7 +34434,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -34403,7 +34475,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -34444,7 +34516,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -34485,7 +34557,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -34526,7 +34598,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -34567,7 +34639,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -34608,7 +34680,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -34649,7 +34721,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -34690,7 +34762,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -34731,7 +34803,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -34772,7 +34844,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -34813,7 +34885,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -34854,7 +34926,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -34895,7 +34967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -34936,7 +35008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -34983,14 +35055,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35028,7 +35102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -35069,7 +35143,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -35110,7 +35184,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -35151,7 +35225,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -35192,7 +35266,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -35233,7 +35307,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -35274,7 +35348,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -35315,7 +35389,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -35356,7 +35430,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -35397,7 +35471,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -35438,7 +35512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -35446,19 +35520,19 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>51</v>
       </c>
       <c r="F12">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="G12">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="H12">
         <v>247</v>
@@ -35479,7 +35553,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -35520,7 +35594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -35561,7 +35635,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -35569,19 +35643,19 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>111</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G15">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H15">
         <v>247</v>
@@ -35602,7 +35676,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -35610,19 +35684,19 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>90</v>
       </c>
       <c r="F16">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H16">
         <v>247</v>
@@ -35643,7 +35717,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -35684,7 +35758,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -35725,7 +35799,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -35742,10 +35816,10 @@
         <v>11</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>247</v>
@@ -35766,7 +35840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -35807,7 +35881,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -35848,7 +35922,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -35889,7 +35963,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -35897,19 +35971,19 @@
         <v>53</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>143</v>
       </c>
       <c r="F23">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>247</v>
@@ -35930,7 +36004,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -35971,7 +36045,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -36012,7 +36086,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -36020,19 +36094,19 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>111</v>
       </c>
       <c r="F26">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G26">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H26">
         <v>247</v>
@@ -36059,14 +36133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36104,7 +36178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -36145,7 +36219,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -36186,7 +36260,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -36227,7 +36301,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -36268,7 +36342,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -36309,7 +36383,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -36350,7 +36424,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -36391,7 +36465,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -36432,7 +36506,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -36473,7 +36547,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -36514,7 +36588,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -36555,7 +36629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -36596,7 +36670,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -36637,7 +36711,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -36678,7 +36752,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -36719,7 +36793,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -36760,7 +36834,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -36801,7 +36875,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -36842,7 +36916,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -36883,7 +36957,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -36924,7 +36998,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -36965,7 +37039,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -37006,7 +37080,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -37047,7 +37121,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -37088,7 +37162,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
